--- a/classes/Discussion Group details.xlsx
+++ b/classes/Discussion Group details.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="313">
   <si>
     <t>alexanderantoniazzi@hotmail.com</t>
   </si>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t>Group Crick</t>
-  </si>
-  <si>
-    <t>Monday</t>
   </si>
   <si>
     <t>2:45-4pm/CC320</t>
@@ -1105,9 +1102,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1389,7 +1386,7 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1403,231 +1400,208 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11">
-        <v>40016558</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
-        <v>25892996</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
-        <v>40006169</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
-        <v>26872026</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>26625886</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
-        <v>27894392</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>27185448</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
-        <v>40044587</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>40007188</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
-        <v>27775814</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -1635,224 +1609,202 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
-        <v>40030677</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
-        <v>40025455</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
-        <v>27890648</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="11">
-        <v>40032902</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="11">
-        <v>27309392</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
-        <v>40000282</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
-        <v>40028448</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="11">
-        <v>27710593</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="11">
-        <v>40026493</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="11">
-        <v>40018431</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="11">
-        <v>26560318</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
@@ -1860,224 +1812,202 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="11">
-        <v>27164629</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="11">
-        <v>40029958</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="11">
-        <v>40028134</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="11">
-        <v>40033091</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="11">
-        <v>27130759</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="11">
-        <v>40006504</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="11">
-        <v>40025027</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="11">
-        <v>40044254</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="11">
-        <v>40028350</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="11">
-        <v>26971679</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="11">
-        <v>27078668</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="13"/>
+      <c r="C69" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
@@ -2085,474 +2015,574 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="11">
-        <v>40026804</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="11">
-        <v>40018830</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="11">
-        <v>40007007</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="11">
-        <v>40032969</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="11">
-        <v>40044105</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="11">
-        <v>27804520</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="11">
-        <v>40040117</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="11">
-        <v>40030678</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="11">
-        <v>40031835</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="11">
-        <v>27559488</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="11">
-        <v>40032940</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="11">
-        <v>40026376</v>
-      </c>
-      <c r="C97" s="11" t="s">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="11">
-        <v>40030949</v>
-      </c>
-      <c r="C99" s="11" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="11">
-        <v>27767641</v>
-      </c>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="E101" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="11">
-        <v>27762097</v>
-      </c>
-      <c r="C103" s="11" t="s">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="11">
-        <v>40007070</v>
-      </c>
-      <c r="C105" s="11" t="s">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="E105" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="11">
-        <v>40017857</v>
-      </c>
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13" t="s">
         <v>146</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E107" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="11">
-        <v>27281684</v>
-      </c>
-      <c r="C109" s="11" t="s">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="11">
-        <v>26762786</v>
-      </c>
-      <c r="C111" s="11" t="s">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="11">
-        <v>40005782</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="E113" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="11">
-        <v>40026400</v>
-      </c>
-      <c r="C115" s="11" t="s">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E115" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="13"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="11">
-        <v>40024380</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="B117" s="13"/>
+      <c r="C117" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="E117" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="D115:D116"/>
     <mergeCell ref="C115:C116"/>
@@ -2577,94 +2607,1231 @@
     <mergeCell ref="D113:D114"/>
     <mergeCell ref="C113:C114"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId7"/>
+    <hyperlink ref="D17" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D21" r:id="rId10"/>
+    <hyperlink ref="D25" r:id="rId11"/>
+    <hyperlink ref="D27" r:id="rId12"/>
+    <hyperlink ref="D29" r:id="rId13"/>
+    <hyperlink ref="D31" r:id="rId14"/>
+    <hyperlink ref="D33" r:id="rId15"/>
+    <hyperlink ref="D35" r:id="rId16"/>
+    <hyperlink ref="D37" r:id="rId17"/>
+    <hyperlink ref="D39" r:id="rId18"/>
+    <hyperlink ref="D41" r:id="rId19"/>
+    <hyperlink ref="D43" r:id="rId20"/>
+    <hyperlink ref="D45" r:id="rId21"/>
+    <hyperlink ref="D49" r:id="rId22"/>
+    <hyperlink ref="D51" r:id="rId23"/>
+    <hyperlink ref="D53" r:id="rId24"/>
+    <hyperlink ref="D55" r:id="rId25"/>
+    <hyperlink ref="D57" r:id="rId26"/>
+    <hyperlink ref="D59" r:id="rId27"/>
+    <hyperlink ref="D61" r:id="rId28"/>
+    <hyperlink ref="D63" r:id="rId29"/>
+    <hyperlink ref="D65" r:id="rId30"/>
+    <hyperlink ref="D67" r:id="rId31"/>
+    <hyperlink ref="D69" r:id="rId32"/>
+    <hyperlink ref="D73" r:id="rId33"/>
+    <hyperlink ref="D75" r:id="rId34"/>
+    <hyperlink ref="D77" r:id="rId35"/>
+    <hyperlink ref="D79" r:id="rId36"/>
+    <hyperlink ref="D81" r:id="rId37"/>
+    <hyperlink ref="D83" r:id="rId38"/>
+    <hyperlink ref="D85" r:id="rId39"/>
+    <hyperlink ref="D87" r:id="rId40"/>
+    <hyperlink ref="D89" r:id="rId41"/>
+    <hyperlink ref="D91" r:id="rId42"/>
+    <hyperlink ref="D93" r:id="rId43"/>
+    <hyperlink ref="D97" r:id="rId44"/>
+    <hyperlink ref="D99" r:id="rId45"/>
+    <hyperlink ref="D101" r:id="rId46"/>
+    <hyperlink ref="D103" r:id="rId47"/>
+    <hyperlink ref="D105" r:id="rId48"/>
+    <hyperlink ref="D107" r:id="rId49"/>
+    <hyperlink ref="D109" r:id="rId50"/>
+    <hyperlink ref="D111" r:id="rId51"/>
+    <hyperlink ref="D113" r:id="rId52"/>
+    <hyperlink ref="D115" r:id="rId53"/>
+    <hyperlink ref="D117" r:id="rId54"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="13"/>
+      <c r="C104" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="13"/>
+      <c r="C106" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="208">
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:D42"/>
@@ -2747,1385 +3914,6 @@
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D25" r:id="rId11"/>
-    <hyperlink ref="D27" r:id="rId12"/>
-    <hyperlink ref="D29" r:id="rId13"/>
-    <hyperlink ref="D31" r:id="rId14"/>
-    <hyperlink ref="D33" r:id="rId15"/>
-    <hyperlink ref="D35" r:id="rId16"/>
-    <hyperlink ref="D37" r:id="rId17"/>
-    <hyperlink ref="D39" r:id="rId18"/>
-    <hyperlink ref="D41" r:id="rId19"/>
-    <hyperlink ref="D43" r:id="rId20"/>
-    <hyperlink ref="D45" r:id="rId21"/>
-    <hyperlink ref="D49" r:id="rId22"/>
-    <hyperlink ref="D51" r:id="rId23"/>
-    <hyperlink ref="D53" r:id="rId24"/>
-    <hyperlink ref="D55" r:id="rId25"/>
-    <hyperlink ref="D57" r:id="rId26"/>
-    <hyperlink ref="D59" r:id="rId27"/>
-    <hyperlink ref="D61" r:id="rId28"/>
-    <hyperlink ref="D63" r:id="rId29"/>
-    <hyperlink ref="D65" r:id="rId30"/>
-    <hyperlink ref="D67" r:id="rId31"/>
-    <hyperlink ref="D69" r:id="rId32"/>
-    <hyperlink ref="D73" r:id="rId33"/>
-    <hyperlink ref="D75" r:id="rId34"/>
-    <hyperlink ref="D77" r:id="rId35"/>
-    <hyperlink ref="D79" r:id="rId36"/>
-    <hyperlink ref="D81" r:id="rId37"/>
-    <hyperlink ref="D83" r:id="rId38"/>
-    <hyperlink ref="D85" r:id="rId39"/>
-    <hyperlink ref="D87" r:id="rId40"/>
-    <hyperlink ref="D89" r:id="rId41"/>
-    <hyperlink ref="D91" r:id="rId42"/>
-    <hyperlink ref="D93" r:id="rId43"/>
-    <hyperlink ref="D97" r:id="rId44"/>
-    <hyperlink ref="D99" r:id="rId45"/>
-    <hyperlink ref="D101" r:id="rId46"/>
-    <hyperlink ref="D103" r:id="rId47"/>
-    <hyperlink ref="D105" r:id="rId48"/>
-    <hyperlink ref="D107" r:id="rId49"/>
-    <hyperlink ref="D109" r:id="rId50"/>
-    <hyperlink ref="D111" r:id="rId51"/>
-    <hyperlink ref="D113" r:id="rId52"/>
-    <hyperlink ref="D115" r:id="rId53"/>
-    <hyperlink ref="D117" r:id="rId54"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
-  <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="11">
-        <v>40033414</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
-        <v>40035232</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
-        <v>40032543</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
-        <v>40008192</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>40024248</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
-        <v>40044190</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>40044490</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
-        <v>40032956</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>40031242</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
-        <v>40025293</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
-        <v>40032910</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
-        <v>40034696</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
-        <v>27744153</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="11">
-        <v>40000659</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="11">
-        <v>25794757</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
-        <v>26694497</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
-        <v>27721897</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="11">
-        <v>40005842</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="11">
-        <v>27390599</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="11">
-        <v>27516932</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="11">
-        <v>40018430</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="11">
-        <v>27163460</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="11">
-        <v>40031099</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="11">
-        <v>40021171</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="11">
-        <v>40029285</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="11">
-        <v>40046120</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="11">
-        <v>27219172</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="11">
-        <v>40022519</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="11">
-        <v>27840268</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="11">
-        <v>40034040</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="11">
-        <v>40026171</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="11">
-        <v>40001774</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="11">
-        <v>40025297</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="11">
-        <v>26382088</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="11">
-        <v>27836317</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="11">
-        <v>40020846</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="11">
-        <v>40021103</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="11">
-        <v>26659365</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="11">
-        <v>40032813</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="11">
-        <v>26937640</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B94" s="11">
-        <v>27775202</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="11">
-        <v>40026888</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="11">
-        <v>27487886</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="11">
-        <v>40033864</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="11">
-        <v>27876742</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="11">
-        <v>40016897</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="11">
-        <v>40033121</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="11">
-        <v>40033039</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="208">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-  </mergeCells>
-  <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" display="Jason"/>
     <hyperlink ref="D19" r:id="rId2" display="Ashley"/>
     <hyperlink ref="D17" r:id="rId3" display="Corey"/>

--- a/classes/Discussion Group details.xlsx
+++ b/classes/Discussion Group details.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="316">
   <si>
     <t>alexanderantoniazzi@hotmail.com</t>
   </si>
@@ -621,15 +621,6 @@
     <t>Cardenas Paez</t>
   </si>
   <si>
-    <t>zealdaemily@yahoo.ca</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Cervenka</t>
-  </si>
-  <si>
     <t>Group Rosalind</t>
   </si>
   <si>
@@ -967,13 +958,31 @@
   </si>
   <si>
     <t>Zamani</t>
+  </si>
+  <si>
+    <t>bardies2@hotmail.com</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Bardies</t>
+  </si>
+  <si>
+    <t>jeffrey_costa@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Costa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1068,6 +1077,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1090,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1105,6 +1121,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1385,14 +1406,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="4" bestFit="1" customWidth="1"/>
@@ -1402,6 +1423,7 @@
       <c r="A1" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="6" t="s">
         <v>165</v>
       </c>
@@ -1410,6 +1432,7 @@
       <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
         <v>167</v>
       </c>
@@ -1424,184 +1447,204 @@
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="17">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="17">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="17">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -1609,202 +1652,210 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="17">
+        <v>11</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="17">
+        <v>12</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="17">
+        <v>13</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="17">
+        <v>14</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="17">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="17">
+        <v>16</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="17">
+        <v>17</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="17">
+        <v>18</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="17">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>61</v>
+      <c r="B43" s="17">
+        <v>20</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
@@ -1812,202 +1863,224 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13" t="s">
+      <c r="B49" s="17">
+        <v>21</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="17">
+        <v>22</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
+      <c r="B53" s="17">
+        <v>23</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="11"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="17">
+        <v>24</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="17">
+        <v>25</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="17">
+        <v>26</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
+      <c r="B61" s="17">
+        <v>27</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13" t="s">
+      <c r="B63" s="17">
+        <v>28</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="11"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="17">
+        <v>29</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13" t="s">
+      <c r="B67" s="17">
+        <v>30</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="11"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13" t="s">
+      <c r="B69" s="17">
+        <v>31</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
@@ -2015,406 +2088,450 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13" t="s">
+      <c r="B73" s="17">
+        <v>32</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="11"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="17">
+        <v>33</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="17">
+        <v>34</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="17">
+        <v>35</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="11"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13" t="s">
+      <c r="B81" s="17">
+        <v>36</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13" t="s">
+      <c r="B83" s="17">
+        <v>37</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="17">
+        <v>38</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13" t="s">
+      <c r="B87" s="17">
+        <v>39</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13" t="s">
+      <c r="B89" s="17">
+        <v>40</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="11"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13" t="s">
+      <c r="B91" s="17">
+        <v>41</v>
+      </c>
+      <c r="C91" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="11"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13" t="s">
+      <c r="B93" s="17">
+        <v>42</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="11"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13" t="s">
+      <c r="B97" s="17">
+        <v>43</v>
+      </c>
+      <c r="C97" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="11"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13" t="s">
+      <c r="B99" s="17">
+        <v>44</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13" t="s">
+      <c r="B101" s="17">
+        <v>45</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="14"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="13"/>
-      <c r="C103" s="13" t="s">
+      <c r="B103" s="17">
+        <v>46</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="11"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="14"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13" t="s">
+      <c r="B105" s="17">
+        <v>47</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="11"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="14"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="13"/>
-      <c r="C107" s="13" t="s">
+      <c r="B107" s="17">
+        <v>48</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="11"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="14"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13" t="s">
+      <c r="B109" s="17">
+        <v>49</v>
+      </c>
+      <c r="C109" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="11"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="14"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13" t="s">
+      <c r="B111" s="17">
+        <v>50</v>
+      </c>
+      <c r="C111" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="11"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13" t="s">
+      <c r="B113" s="17">
+        <v>51</v>
+      </c>
+      <c r="C113" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="11"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="14"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13" t="s">
+      <c r="B115" s="17">
+        <v>52</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="11"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="14"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="13"/>
-      <c r="C117" s="13" t="s">
+      <c r="B117" s="17">
+        <v>53</v>
+      </c>
+      <c r="C117" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="11"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="213">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -2488,9 +2605,9 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
@@ -2500,9 +2617,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
@@ -2653,40 +2767,39 @@
     <hyperlink ref="D39" r:id="rId18"/>
     <hyperlink ref="D41" r:id="rId19"/>
     <hyperlink ref="D43" r:id="rId20"/>
-    <hyperlink ref="D45" r:id="rId21"/>
-    <hyperlink ref="D49" r:id="rId22"/>
-    <hyperlink ref="D51" r:id="rId23"/>
-    <hyperlink ref="D53" r:id="rId24"/>
-    <hyperlink ref="D55" r:id="rId25"/>
-    <hyperlink ref="D57" r:id="rId26"/>
-    <hyperlink ref="D59" r:id="rId27"/>
-    <hyperlink ref="D61" r:id="rId28"/>
-    <hyperlink ref="D63" r:id="rId29"/>
-    <hyperlink ref="D65" r:id="rId30"/>
-    <hyperlink ref="D67" r:id="rId31"/>
-    <hyperlink ref="D69" r:id="rId32"/>
-    <hyperlink ref="D73" r:id="rId33"/>
-    <hyperlink ref="D75" r:id="rId34"/>
-    <hyperlink ref="D77" r:id="rId35"/>
-    <hyperlink ref="D79" r:id="rId36"/>
-    <hyperlink ref="D81" r:id="rId37"/>
-    <hyperlink ref="D83" r:id="rId38"/>
-    <hyperlink ref="D85" r:id="rId39"/>
-    <hyperlink ref="D87" r:id="rId40"/>
-    <hyperlink ref="D89" r:id="rId41"/>
-    <hyperlink ref="D91" r:id="rId42"/>
-    <hyperlink ref="D93" r:id="rId43"/>
-    <hyperlink ref="D97" r:id="rId44"/>
-    <hyperlink ref="D99" r:id="rId45"/>
-    <hyperlink ref="D101" r:id="rId46"/>
-    <hyperlink ref="D103" r:id="rId47"/>
-    <hyperlink ref="D105" r:id="rId48"/>
-    <hyperlink ref="D107" r:id="rId49"/>
-    <hyperlink ref="D109" r:id="rId50"/>
-    <hyperlink ref="D111" r:id="rId51"/>
-    <hyperlink ref="D113" r:id="rId52"/>
-    <hyperlink ref="D115" r:id="rId53"/>
-    <hyperlink ref="D117" r:id="rId54"/>
+    <hyperlink ref="D49" r:id="rId21"/>
+    <hyperlink ref="D51" r:id="rId22"/>
+    <hyperlink ref="D53" r:id="rId23"/>
+    <hyperlink ref="D55" r:id="rId24"/>
+    <hyperlink ref="D57" r:id="rId25"/>
+    <hyperlink ref="D59" r:id="rId26"/>
+    <hyperlink ref="D61" r:id="rId27"/>
+    <hyperlink ref="D63" r:id="rId28"/>
+    <hyperlink ref="D65" r:id="rId29"/>
+    <hyperlink ref="D67" r:id="rId30"/>
+    <hyperlink ref="D69" r:id="rId31"/>
+    <hyperlink ref="D73" r:id="rId32"/>
+    <hyperlink ref="D75" r:id="rId33"/>
+    <hyperlink ref="D77" r:id="rId34"/>
+    <hyperlink ref="D79" r:id="rId35"/>
+    <hyperlink ref="D81" r:id="rId36"/>
+    <hyperlink ref="D83" r:id="rId37"/>
+    <hyperlink ref="D85" r:id="rId38"/>
+    <hyperlink ref="D87" r:id="rId39"/>
+    <hyperlink ref="D89" r:id="rId40"/>
+    <hyperlink ref="D91" r:id="rId41"/>
+    <hyperlink ref="D93" r:id="rId42"/>
+    <hyperlink ref="D97" r:id="rId43"/>
+    <hyperlink ref="D99" r:id="rId44"/>
+    <hyperlink ref="D101" r:id="rId45"/>
+    <hyperlink ref="D103" r:id="rId46"/>
+    <hyperlink ref="D105" r:id="rId47"/>
+    <hyperlink ref="D107" r:id="rId48"/>
+    <hyperlink ref="D109" r:id="rId49"/>
+    <hyperlink ref="D111" r:id="rId50"/>
+    <hyperlink ref="D113" r:id="rId51"/>
+    <hyperlink ref="D115" r:id="rId52"/>
+    <hyperlink ref="D117" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2694,16 +2807,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
@@ -2713,7 +2826,7 @@
       <c r="A1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="6" t="s">
         <v>165</v>
       </c>
@@ -2724,7 +2837,6 @@
       <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>167</v>
       </c>
@@ -2737,383 +2849,426 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="17">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="17">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="17">
+        <v>11</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="17">
+        <v>12</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D27" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E27" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="17">
+        <v>13</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E29" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="17">
+        <v>14</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D31" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E31" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="17">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D33" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E33" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="17">
+        <v>16</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D35" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E35" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="17">
+        <v>17</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D37" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E37" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="17">
+        <v>18</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D39" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E39" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="17">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="D41" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E41" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="17">
+        <v>20</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="D43" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E43" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46" s="4"/>
@@ -3121,681 +3276,730 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="17">
+        <v>21</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="17"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="17">
+        <v>22</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E50" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="11" t="s">
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="17">
+        <v>23</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="17">
+        <v>24</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="17">
+        <v>25</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="17">
+        <v>26</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="17">
+        <v>27</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="17"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="17">
+        <v>28</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="17"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="17">
+        <v>29</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="17"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="17">
+        <v>30</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="17">
+        <v>31</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="17">
+        <v>32</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="17">
+        <v>33</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="17">
+        <v>34</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="17"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="17">
+        <v>35</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="17"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="17">
+        <v>36</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="17"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="17">
+        <v>37</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="17"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="17">
+        <v>38</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="17"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="17">
+        <v>39</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="17"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="17">
+        <v>40</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="17"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="18"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="17">
+        <v>41</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="17"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="17">
+        <v>42</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="17"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="17">
+        <v>43</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="17"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="17">
+        <v>44</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="17"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="17">
+        <v>45</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="17"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="17">
+        <v>46</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="17"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="17">
+        <v>47</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="17"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="17">
+        <v>48</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="17"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="17">
+        <v>49</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="13"/>
-      <c r="C76" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="13"/>
-      <c r="C96" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="13"/>
-      <c r="C108" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="11"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="14"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="11"/>
+      <c r="B110" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="11"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="11"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="11"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="208">
+  <mergeCells count="200">
+    <mergeCell ref="B110:B111"/>
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="E112:E113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
     <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="E104:E105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="D100:D101"/>
     <mergeCell ref="E100:E101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="D62:D63"/>
@@ -3876,10 +4080,9 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -3914,54 +4117,54 @@
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" display="Jason"/>
-    <hyperlink ref="D19" r:id="rId2" display="Ashley"/>
-    <hyperlink ref="D17" r:id="rId3" display="Corey"/>
-    <hyperlink ref="D15" r:id="rId4" display="Hana"/>
-    <hyperlink ref="D13" r:id="rId5" display="Karine"/>
-    <hyperlink ref="D11" r:id="rId6" display="David Paul"/>
-    <hyperlink ref="D9" r:id="rId7" display="Saba"/>
-    <hyperlink ref="D7" r:id="rId8" display="Sara"/>
-    <hyperlink ref="D5" r:id="rId9" display="Nurunnahar"/>
-    <hyperlink ref="D3" r:id="rId10" display="Alexander"/>
-    <hyperlink ref="D43" r:id="rId11" display="Khalida"/>
-    <hyperlink ref="D41" r:id="rId12" display="Latisha"/>
-    <hyperlink ref="D39" r:id="rId13" display="Elias"/>
-    <hyperlink ref="D37" r:id="rId14" display="Mikael"/>
-    <hyperlink ref="D35" r:id="rId15" display="Veronica"/>
-    <hyperlink ref="D33" r:id="rId16" display="Melisa"/>
-    <hyperlink ref="D31" r:id="rId17" display="Xanthi"/>
-    <hyperlink ref="D29" r:id="rId18" display="Adrian"/>
-    <hyperlink ref="D27" r:id="rId19" display="Julia"/>
-    <hyperlink ref="D25" r:id="rId20" display="Daniel-Alexander"/>
-    <hyperlink ref="D66" r:id="rId21" display="Thivaedee"/>
-    <hyperlink ref="D64" r:id="rId22" display="Midori"/>
-    <hyperlink ref="D62" r:id="rId23" display="Nareg"/>
-    <hyperlink ref="D60" r:id="rId24" display="Serena"/>
-    <hyperlink ref="D58" r:id="rId25" display="Francis"/>
-    <hyperlink ref="D56" r:id="rId26" display="Soheyl"/>
-    <hyperlink ref="D54" r:id="rId27" display="Ethan"/>
-    <hyperlink ref="D52" r:id="rId28" display="Haig"/>
-    <hyperlink ref="D50" r:id="rId29" display="Gabrielle"/>
-    <hyperlink ref="D48" r:id="rId30" display="Yasamine"/>
-    <hyperlink ref="D90" r:id="rId31" display="Damien"/>
-    <hyperlink ref="D88" r:id="rId32" display="Yu Xiang"/>
-    <hyperlink ref="D86" r:id="rId33" display="Laura"/>
-    <hyperlink ref="D84" r:id="rId34" display="Margaux"/>
-    <hyperlink ref="D82" r:id="rId35" display="Sneh"/>
-    <hyperlink ref="D80" r:id="rId36" display="Imene"/>
-    <hyperlink ref="D78" r:id="rId37" display="Rebecca"/>
-    <hyperlink ref="D76" r:id="rId38" display="Christa"/>
-    <hyperlink ref="D74" r:id="rId39" display="Gabrielle"/>
-    <hyperlink ref="D72" r:id="rId40" display="Jasmine"/>
-    <hyperlink ref="D108" r:id="rId41" display="Kiri"/>
-    <hyperlink ref="D106" r:id="rId42" display="Nastaran"/>
-    <hyperlink ref="D104" r:id="rId43" display="Sahar"/>
-    <hyperlink ref="D102" r:id="rId44" display="Neha"/>
-    <hyperlink ref="D100" r:id="rId45" display="Alexandre"/>
-    <hyperlink ref="D98" r:id="rId46" display="Claudia-Jenna"/>
-    <hyperlink ref="D96" r:id="rId47" display="Kristina"/>
-    <hyperlink ref="D94" r:id="rId48" display="Dashmeet"/>
+    <hyperlink ref="D19" r:id="rId1" display="Ashley"/>
+    <hyperlink ref="D17" r:id="rId2" display="Corey"/>
+    <hyperlink ref="D15" r:id="rId3" display="Hana"/>
+    <hyperlink ref="D13" r:id="rId4" display="Karine"/>
+    <hyperlink ref="D11" r:id="rId5" display="David Paul"/>
+    <hyperlink ref="D9" r:id="rId6" display="Saba"/>
+    <hyperlink ref="D7" r:id="rId7" display="Sara"/>
+    <hyperlink ref="D5" r:id="rId8" display="Nurunnahar"/>
+    <hyperlink ref="D3" r:id="rId9" display="Alexander"/>
+    <hyperlink ref="D43" r:id="rId10" display="Khalida"/>
+    <hyperlink ref="D41" r:id="rId11" display="Latisha"/>
+    <hyperlink ref="D39" r:id="rId12" display="Elias"/>
+    <hyperlink ref="D37" r:id="rId13" display="Mikael"/>
+    <hyperlink ref="D35" r:id="rId14" display="Veronica"/>
+    <hyperlink ref="D33" r:id="rId15" display="Melisa"/>
+    <hyperlink ref="D31" r:id="rId16" display="Xanthi"/>
+    <hyperlink ref="D29" r:id="rId17" display="Adrian"/>
+    <hyperlink ref="D27" r:id="rId18" display="Julia"/>
+    <hyperlink ref="D25" r:id="rId19" display="Daniel-Alexander"/>
+    <hyperlink ref="D66" r:id="rId20" display="Thivaedee"/>
+    <hyperlink ref="D64" r:id="rId21" display="Midori"/>
+    <hyperlink ref="D62" r:id="rId22" display="Nareg"/>
+    <hyperlink ref="D60" r:id="rId23" display="Serena"/>
+    <hyperlink ref="D58" r:id="rId24" display="Francis"/>
+    <hyperlink ref="D56" r:id="rId25" display="Soheyl"/>
+    <hyperlink ref="D54" r:id="rId26" display="Ethan"/>
+    <hyperlink ref="D52" r:id="rId27" display="Haig"/>
+    <hyperlink ref="D50" r:id="rId28" display="Gabrielle"/>
+    <hyperlink ref="D48" r:id="rId29" display="Yasamine"/>
+    <hyperlink ref="D88" r:id="rId30" display="Damien"/>
+    <hyperlink ref="D86" r:id="rId31" display="Yu Xiang"/>
+    <hyperlink ref="D84" r:id="rId32" display="Laura"/>
+    <hyperlink ref="D82" r:id="rId33" display="Margaux"/>
+    <hyperlink ref="D80" r:id="rId34" display="Sneh"/>
+    <hyperlink ref="D78" r:id="rId35" display="Imene"/>
+    <hyperlink ref="D76" r:id="rId36" display="Rebecca"/>
+    <hyperlink ref="D74" r:id="rId37" display="Christa"/>
+    <hyperlink ref="D72" r:id="rId38" display="Gabrielle"/>
+    <hyperlink ref="D70" r:id="rId39" display="Jasmine"/>
+    <hyperlink ref="D106" r:id="rId40" display="Kiri"/>
+    <hyperlink ref="D104" r:id="rId41" display="Nastaran"/>
+    <hyperlink ref="D102" r:id="rId42" display="Sahar"/>
+    <hyperlink ref="D100" r:id="rId43" display="Neha"/>
+    <hyperlink ref="D98" r:id="rId44" display="Alexandre"/>
+    <hyperlink ref="D96" r:id="rId45" display="Claudia-Jenna"/>
+    <hyperlink ref="D94" r:id="rId46" display="Kristina"/>
+    <hyperlink ref="D92" r:id="rId47" display="Dashmeet"/>
+    <hyperlink ref="D108" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
